--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/登校_100人_センサ毎.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/登校_100人_センサ毎.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\崚\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\results\記録用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamura\source\repos\LplcOpenDataConverter\LplcOpenDataConverter\LplcOpenDataConverter\genko\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -238,6 +239,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF8-4A4D-917C-C52842F05E63}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -401,7 +407,342 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
-                  <a:t>第三者プライバシデータ流出比</a:t>
+                  <a:t>第三者プライバシ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6188373804267846E-2"/>
+              <c:y val="2.0272076159971529E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439654040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90464621925296085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74819566960705697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93241498062849759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85074056899702677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92669347355397469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87509954598216255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91861228876813761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92640070612626113</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACF8-4A4D-917C-C52842F05E63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="439654040"/>
+        <c:axId val="439654824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="439654040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439654824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439654824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t> </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -516,7 +857,645 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90464621925296085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74819566960705697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93241498062849759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85074056899702677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92669347355397469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87509954598216255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91861228876813761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92640070612626113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E59-4341-A567-A3B503DE0526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1876341199"/>
+        <c:axId val="1876333295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876341199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876333295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876333295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876341199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90464621925296085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74819566960705697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93241498062849759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85074056899702677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92669347355397469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87509954598216255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91861228876813761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92640070612626113</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E59-4341-A567-A3B503DE0526}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1876341199"/>
+        <c:axId val="1876333295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876341199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876333295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876333295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876341199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1059,20 +2038,1739 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5934075" y="1971675"/>
+          <a:ext cx="8648701" cy="5095874"/>
+          <a:chOff x="5934075" y="1971675"/>
+          <a:chExt cx="8648701" cy="5095874"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="グループ化 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5934075" y="1971675"/>
+            <a:ext cx="8648701" cy="5095874"/>
+            <a:chOff x="3543300" y="2209800"/>
+            <a:chExt cx="8648701" cy="5095874"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="グラフ 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="3562351" y="3981449"/>
+            <a:ext cx="8629650" cy="3324225"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="グラフ 4"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="3562351" y="2209800"/>
+            <a:ext cx="8629650" cy="3562350"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="小波 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3543300" y="5105401"/>
+              <a:ext cx="8629650" cy="942976"/>
+            </a:xfrm>
+            <a:prstGeom prst="doubleWave">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="4048127" y="4029075"/>
+            <a:ext cx="4457700" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+              <a:t>第三者プライバシデータ流出比</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1085,10 +3783,62 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="小波 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="3400424"/>
+          <a:ext cx="7067550" cy="628651"/>
+        </a:xfrm>
+        <a:prstGeom prst="doubleWave">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1360,12 +4110,12 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +4126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1391,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1406,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1421,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1436,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1451,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1466,7 +4216,7 @@
         <v>0.90464621925296085</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1481,7 +4231,7 @@
         <v>0.74819566960705697</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1496,7 +4246,7 @@
         <v>0.93241498062849759</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1511,7 +4261,7 @@
         <v>0.85074056899702677</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1526,7 +4276,7 @@
         <v>0.92669347355397469</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1541,7 +4291,7 @@
         <v>0.87509954598216255</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1556,7 +4306,7 @@
         <v>0.91861228876813761</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1571,7 +4321,7 @@
         <v>0.92640070612626113</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1585,8 +4335,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1598,6 +4351,9 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1613,6 +4369,9 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -1656,6 +4415,9 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>1</v>
@@ -1710,6 +4472,176 @@
       <c r="G24">
         <f>SUM(C2:C6,C18:C19)</f>
         <v>1157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90464621925296085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.74819566960705697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.93241498062849759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.85074056899702677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.92669347355397469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.87509954598216255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.91861228876813761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.92640070612626113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/登校_100人_センサ毎.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/登校_100人_センサ毎.xlsx
@@ -703,7 +703,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.5"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3556,105 +3556,192 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>457201</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5934075" y="1971675"/>
-          <a:ext cx="8648701" cy="5095874"/>
-          <a:chOff x="5934075" y="1971675"/>
-          <a:chExt cx="8648701" cy="5095874"/>
+          <a:off x="5943601" y="2000250"/>
+          <a:ext cx="8762998" cy="5095874"/>
+          <a:chOff x="5943601" y="2000250"/>
+          <a:chExt cx="8762998" cy="5095874"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="グループ化 7"/>
+          <xdr:cNvPr id="4" name="グループ化 3"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="5934075" y="1971675"/>
-            <a:ext cx="8648701" cy="5095874"/>
-            <a:chOff x="3543300" y="2209800"/>
-            <a:chExt cx="8648701" cy="5095874"/>
+            <a:off x="5943601" y="2000250"/>
+            <a:ext cx="8762998" cy="5095874"/>
+            <a:chOff x="5953126" y="1971675"/>
+            <a:chExt cx="8762998" cy="5095874"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="グラフ 2"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="3562351" y="3981449"/>
-            <a:ext cx="8629650" cy="3324225"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="グラフ 4"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="3562351" y="2209800"/>
-            <a:ext cx="8629650" cy="3562350"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="グループ化 7"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5953126" y="1971675"/>
+              <a:ext cx="8762998" cy="5095874"/>
+              <a:chOff x="3562351" y="2209800"/>
+              <a:chExt cx="8762998" cy="5095874"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="3" name="グラフ 2"/>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="3562351" y="3981449"/>
+              <a:ext cx="8629650" cy="3324225"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="5" name="グラフ 4"/>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="3562351" y="2209800"/>
+              <a:ext cx="8629650" cy="3562350"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="小波 6"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4152900" y="5019675"/>
+                <a:ext cx="8172449" cy="1057277"/>
+              </a:xfrm>
+              <a:prstGeom prst="doubleWave">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="lt1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="小波 6"/>
-            <xdr:cNvSpPr/>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3543300" y="5105401"/>
-              <a:ext cx="8629650" cy="942976"/>
+            <a:xfrm rot="16200000">
+              <a:off x="4048127" y="4029075"/>
+              <a:ext cx="4457700" cy="466725"/>
             </a:xfrm>
-            <a:prstGeom prst="doubleWave">
+            <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                <a:t>NPD</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                <a:t>流出比</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -3662,61 +3749,47 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="16200000">
-            <a:off x="4048127" y="4029075"/>
-            <a:ext cx="4457700" cy="466725"/>
+          <a:xfrm>
+            <a:off x="12553950" y="6172200"/>
+            <a:ext cx="352425" cy="371475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="bg1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
           </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="accent1"/>
           </a:effectRef>
           <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="lt1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
-              <a:t>第三者プライバシデータ流出比</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
@@ -4109,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
